--- a/src/predicciones/holt_winters/producto_113.xlsx
+++ b/src/predicciones/holt_winters/producto_113.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -377,13 +386,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C275"/>
+  <dimension ref="A1:C222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,3017 +404,2434 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44931</v>
       </c>
       <c r="B2">
-        <v>2.002335536086992</v>
+        <v>1.738929973015217</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44932</v>
       </c>
       <c r="B3">
-        <v>2.002569163930162</v>
+        <v>1.630659973224426</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44935</v>
       </c>
       <c r="B4">
-        <v>2.002551812134538</v>
+        <v>1.74229973180304</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44937</v>
       </c>
       <c r="B5">
-        <v>1.002805315826075</v>
+        <v>1.669954350983566</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>44939</v>
       </c>
       <c r="B6">
-        <v>2.002805733858693</v>
+        <v>1.564581508259248</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>44940</v>
       </c>
       <c r="B7">
-        <v>2.002806255296627</v>
+        <v>2.182607454742532</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" s="2">
+        <v>44942</v>
       </c>
       <c r="B8">
-        <v>1.005180336936024</v>
+        <v>1.819312410117447</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" s="2">
+        <v>44944</v>
       </c>
       <c r="B9">
-        <v>2.005143024157792</v>
+        <v>1.745339486392014</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="A10" s="2">
+        <v>44945</v>
       </c>
       <c r="B10">
-        <v>2.005376652000962</v>
+        <v>1.637069486601223</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
+      <c r="A11" s="2">
+        <v>44948</v>
       </c>
       <c r="B11">
-        <v>2.005359300205337</v>
+        <v>1.748709245179837</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="A12" s="2">
+        <v>44949</v>
       </c>
       <c r="B12">
-        <v>1.005612803896875</v>
+        <v>1.676363864360363</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="A13" s="2">
+        <v>44950</v>
       </c>
       <c r="B13">
-        <v>2.005613221929492</v>
+        <v>1.570991021636045</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
+      <c r="A14" s="2">
+        <v>44951</v>
       </c>
       <c r="B14">
-        <v>2.005613743367427</v>
+        <v>2.189016968119329</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
+      <c r="A15" s="2">
+        <v>44955</v>
       </c>
       <c r="B15">
-        <v>1.007987825006824</v>
+        <v>1.825721923494245</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
+      <c r="A16" s="2">
+        <v>44962</v>
       </c>
       <c r="B16">
-        <v>2.007950512228592</v>
+        <v>1.751748999768812</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
+      <c r="A17" s="2">
+        <v>44963</v>
       </c>
       <c r="B17">
-        <v>2.008184140071762</v>
+        <v>1.64347899997802</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
+      <c r="A18" s="2">
+        <v>44964</v>
       </c>
       <c r="B18">
-        <v>2.008166788276137</v>
+        <v>1.755118758556634</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
+      <c r="A19" s="2">
+        <v>44966</v>
       </c>
       <c r="B19">
-        <v>1.008420291967674</v>
+        <v>1.682773377737161</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
+      <c r="A20" s="2">
+        <v>44968</v>
       </c>
       <c r="B20">
-        <v>2.008420710000292</v>
+        <v>1.577400535012843</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
+      <c r="A21" s="2">
+        <v>44969</v>
       </c>
       <c r="B21">
-        <v>2.008421231438227</v>
+        <v>2.195426481496126</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
+      <c r="A22" s="2">
+        <v>44972</v>
       </c>
       <c r="B22">
-        <v>1.010795313077624</v>
+        <v>1.832131436871042</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
+      <c r="A23" s="2">
+        <v>44973</v>
       </c>
       <c r="B23">
-        <v>2.010758000299392</v>
+        <v>1.758158513145609</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
+      <c r="A24" s="2">
+        <v>44975</v>
       </c>
       <c r="B24">
-        <v>2.010991628142562</v>
+        <v>1.649888513354818</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
+      <c r="A25" s="2">
+        <v>44976</v>
       </c>
       <c r="B25">
-        <v>2.010974276346937</v>
+        <v>1.761528271933432</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
+      <c r="A26" s="2">
+        <v>44977</v>
       </c>
       <c r="B26">
-        <v>1.011227780038474</v>
+        <v>1.689182891113958</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
+      <c r="A27" s="2">
+        <v>44982</v>
       </c>
       <c r="B27">
-        <v>2.011228198071092</v>
+        <v>1.58381004838964</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
+      <c r="A28" s="2">
+        <v>44986</v>
       </c>
       <c r="B28">
-        <v>2.011228719509027</v>
+        <v>2.201835994872924</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
+      <c r="A29" s="2">
+        <v>44988</v>
       </c>
       <c r="B29">
-        <v>1.013602801148423</v>
+        <v>1.838540950247839</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
+      <c r="A30" s="2">
+        <v>44989</v>
       </c>
       <c r="B30">
-        <v>2.013565488370192</v>
+        <v>1.764568026522406</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
+      <c r="A31" s="2">
+        <v>44990</v>
       </c>
       <c r="B31">
-        <v>2.013799116213362</v>
+        <v>1.656298026731615</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
+      <c r="A32" s="2">
+        <v>44992</v>
       </c>
       <c r="B32">
-        <v>2.013781764417737</v>
+        <v>1.767937785310229</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
+      <c r="A33" s="2">
+        <v>44993</v>
       </c>
       <c r="B33">
-        <v>1.014035268109274</v>
+        <v>1.695592404490755</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
+      <c r="A34" s="2">
+        <v>44994</v>
       </c>
       <c r="B34">
-        <v>2.014035686141892</v>
+        <v>1.590219561766437</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
+      <c r="A35" s="2">
+        <v>44997</v>
       </c>
       <c r="B35">
-        <v>2.014036207579826</v>
+        <v>2.208245508249721</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
+      <c r="A36" s="2">
+        <v>45000</v>
       </c>
       <c r="B36">
-        <v>1.016410289219223</v>
+        <v>1.844950463624637</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
+      <c r="A37" s="2">
+        <v>45003</v>
       </c>
       <c r="B37">
-        <v>2.016372976440992</v>
+        <v>1.770977539899204</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
+      <c r="A38" s="2">
+        <v>45004</v>
       </c>
       <c r="B38">
-        <v>2.016606604284162</v>
+        <v>1.662707540108412</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
+      <c r="A39" s="2">
+        <v>45006</v>
       </c>
       <c r="B39">
-        <v>2.016589252488537</v>
+        <v>1.774347298687026</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
+      <c r="A40" s="2">
+        <v>45008</v>
       </c>
       <c r="B40">
-        <v>1.016842756180074</v>
+        <v>1.702001917867553</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
+      <c r="A41" s="2">
+        <v>45010</v>
       </c>
       <c r="B41">
-        <v>2.016843174212692</v>
+        <v>1.596629075143235</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
+      <c r="A42" s="2">
+        <v>45011</v>
       </c>
       <c r="B42">
-        <v>2.016843695650626</v>
+        <v>2.214655021626518</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
+      <c r="A43" s="2">
+        <v>45012</v>
       </c>
       <c r="B43">
-        <v>1.019217777290023</v>
+        <v>1.851359977001434</v>
       </c>
       <c r="C43">
         <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
+      <c r="A44" s="2">
+        <v>45015</v>
       </c>
       <c r="B44">
-        <v>2.019180464511791</v>
+        <v>1.777387053276001</v>
       </c>
       <c r="C44">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
+      <c r="A45" s="2">
+        <v>45019</v>
       </c>
       <c r="B45">
-        <v>2.019414092354961</v>
+        <v>1.66911705348521</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
+      <c r="A46" s="2">
+        <v>45021</v>
       </c>
       <c r="B46">
-        <v>2.019396740559336</v>
+        <v>1.780756812063824</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
+      <c r="A47" s="2">
+        <v>45022</v>
       </c>
       <c r="B47">
-        <v>1.019650244250874</v>
+        <v>1.70841143124435</v>
       </c>
       <c r="C47">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
+      <c r="A48" s="2">
+        <v>45025</v>
       </c>
       <c r="B48">
-        <v>2.019650662283492</v>
+        <v>1.603038588520032</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
+      <c r="A49" s="2">
+        <v>45027</v>
       </c>
       <c r="B49">
-        <v>2.019651183721426</v>
+        <v>2.221064535003316</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
+      <c r="A50" s="2">
+        <v>45028</v>
       </c>
       <c r="B50">
-        <v>1.022025265360823</v>
+        <v>1.857769490378231</v>
       </c>
       <c r="C50">
         <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
+      <c r="A51" s="2">
+        <v>45029</v>
       </c>
       <c r="B51">
-        <v>2.021987952582591</v>
+        <v>1.783796566652799</v>
       </c>
       <c r="C51">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
+      <c r="A52" s="2">
+        <v>45032</v>
       </c>
       <c r="B52">
-        <v>2.022221580425761</v>
+        <v>1.675526566862007</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
+      <c r="A53" s="2">
+        <v>45033</v>
       </c>
       <c r="B53">
-        <v>2.022204228630136</v>
+        <v>1.787166325440621</v>
       </c>
       <c r="C53">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
+      <c r="A54" s="2">
+        <v>45034</v>
       </c>
       <c r="B54">
-        <v>1.022457732321673</v>
+        <v>1.714820944621147</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
+      <c r="A55" s="2">
+        <v>45035</v>
       </c>
       <c r="B55">
-        <v>2.022458150354292</v>
+        <v>1.609448101896829</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
+      <c r="A56" s="2">
+        <v>45036</v>
       </c>
       <c r="B56">
-        <v>2.022458671792226</v>
+        <v>2.227474048380113</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
+      <c r="A57" s="2">
+        <v>45039</v>
       </c>
       <c r="B57">
-        <v>1.024832753431623</v>
+        <v>1.864179003755029</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
+      <c r="A58" s="2">
+        <v>45040</v>
       </c>
       <c r="B58">
-        <v>2.024795440653391</v>
+        <v>1.790206080029596</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
+      <c r="A59" s="2">
+        <v>45041</v>
       </c>
       <c r="B59">
-        <v>2.025029068496561</v>
+        <v>1.681936080238804</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
+      <c r="A60" s="2">
+        <v>45042</v>
       </c>
       <c r="B60">
-        <v>2.025011716700936</v>
+        <v>1.793575838817418</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
+      <c r="A61" s="2">
+        <v>45043</v>
       </c>
       <c r="B61">
-        <v>1.025265220392473</v>
+        <v>1.721230457997944</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
+      <c r="A62" s="2">
+        <v>45044</v>
       </c>
       <c r="B62">
-        <v>2.025265638425092</v>
+        <v>1.615857615273627</v>
       </c>
       <c r="C62">
         <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1">
-        <v>61</v>
+      <c r="A63" s="2">
+        <v>45045</v>
       </c>
       <c r="B63">
-        <v>2.025266159863026</v>
+        <v>2.23388356175691</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1">
-        <v>62</v>
+      <c r="A64" s="2">
+        <v>45048</v>
       </c>
       <c r="B64">
-        <v>1.027640241502422</v>
+        <v>1.870588517131826</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>63</v>
+      <c r="A65" s="2">
+        <v>45051</v>
       </c>
       <c r="B65">
-        <v>2.027602928724191</v>
+        <v>1.796615593406393</v>
       </c>
       <c r="C65">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="1">
-        <v>64</v>
+      <c r="A66" s="2">
+        <v>45053</v>
       </c>
       <c r="B66">
-        <v>2.027836556567361</v>
+        <v>1.688345593615602</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="1">
-        <v>65</v>
+      <c r="A67" s="2">
+        <v>45054</v>
       </c>
       <c r="B67">
-        <v>2.027819204771736</v>
+        <v>1.799985352194216</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="1">
-        <v>66</v>
+      <c r="A68" s="2">
+        <v>45057</v>
       </c>
       <c r="B68">
-        <v>1.028072708463273</v>
+        <v>1.727639971374742</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="1">
-        <v>67</v>
+      <c r="A69" s="2">
+        <v>45058</v>
       </c>
       <c r="B69">
-        <v>2.028073126495891</v>
+        <v>1.622267128650424</v>
       </c>
       <c r="C69">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="1">
-        <v>68</v>
+      <c r="A70" s="2">
+        <v>45060</v>
       </c>
       <c r="B70">
-        <v>2.028073647933825</v>
+        <v>2.240293075133708</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="1">
-        <v>69</v>
+      <c r="A71" s="2">
+        <v>45062</v>
       </c>
       <c r="B71">
-        <v>1.030447729573222</v>
+        <v>1.876998030508623</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="1">
-        <v>70</v>
+      <c r="A72" s="2">
+        <v>45063</v>
       </c>
       <c r="B72">
-        <v>2.030410416794991</v>
+        <v>1.803025106783191</v>
       </c>
       <c r="C72">
         <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="1">
-        <v>71</v>
+      <c r="A73" s="2">
+        <v>45064</v>
       </c>
       <c r="B73">
-        <v>2.03064404463816</v>
+        <v>1.694755106992399</v>
       </c>
       <c r="C73">
         <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="1">
-        <v>72</v>
+      <c r="A74" s="2">
+        <v>45065</v>
       </c>
       <c r="B74">
-        <v>2.030626692842536</v>
+        <v>1.806394865571013</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="1">
-        <v>73</v>
+      <c r="A75" s="2">
+        <v>45066</v>
       </c>
       <c r="B75">
-        <v>1.030880196534073</v>
+        <v>1.734049484751539</v>
       </c>
       <c r="C75">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="1">
-        <v>74</v>
+      <c r="A76" s="2">
+        <v>45068</v>
       </c>
       <c r="B76">
-        <v>2.030880614566691</v>
+        <v>1.628676642027221</v>
       </c>
       <c r="C76">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="1">
-        <v>75</v>
+      <c r="A77" s="2">
+        <v>45069</v>
       </c>
       <c r="B77">
-        <v>2.030881136004625</v>
+        <v>2.246702588510505</v>
       </c>
       <c r="C77">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="1">
-        <v>76</v>
+      <c r="A78" s="2">
+        <v>45072</v>
       </c>
       <c r="B78">
-        <v>1.033255217644022</v>
+        <v>1.883407543885421</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="1">
-        <v>77</v>
+      <c r="A79" s="2">
+        <v>45073</v>
       </c>
       <c r="B79">
-        <v>2.03321790486579</v>
+        <v>1.809434620159988</v>
       </c>
       <c r="C79">
         <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="1">
-        <v>78</v>
+      <c r="A80" s="2">
+        <v>45074</v>
       </c>
       <c r="B80">
-        <v>2.03345153270896</v>
+        <v>1.701164620369196</v>
       </c>
       <c r="C80">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="1">
-        <v>79</v>
+      <c r="A81" s="2">
+        <v>45082</v>
       </c>
       <c r="B81">
-        <v>2.033434180913336</v>
+        <v>1.81280437894781</v>
       </c>
       <c r="C81">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="1">
-        <v>80</v>
+      <c r="A82" s="2">
+        <v>45084</v>
       </c>
       <c r="B82">
-        <v>1.033687684604873</v>
+        <v>1.740458998128336</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="1">
-        <v>81</v>
+      <c r="A83" s="2">
+        <v>45087</v>
       </c>
       <c r="B83">
-        <v>2.033688102637491</v>
+        <v>1.635086155404019</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="1">
-        <v>82</v>
+      <c r="A84" s="2">
+        <v>45088</v>
       </c>
       <c r="B84">
-        <v>2.033688624075425</v>
+        <v>2.253112101887302</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="1">
-        <v>83</v>
+      <c r="A85" s="2">
+        <v>45089</v>
       </c>
       <c r="B85">
-        <v>1.036062705714822</v>
+        <v>1.889817057262218</v>
       </c>
       <c r="C85">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="1">
-        <v>84</v>
+      <c r="A86" s="2">
+        <v>45092</v>
       </c>
       <c r="B86">
-        <v>2.03602539293659</v>
+        <v>1.815844133536785</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="1">
-        <v>85</v>
+      <c r="A87" s="2">
+        <v>45094</v>
       </c>
       <c r="B87">
-        <v>2.03625902077976</v>
+        <v>1.707574133745994</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="1">
-        <v>86</v>
+      <c r="A88" s="2">
+        <v>45099</v>
       </c>
       <c r="B88">
-        <v>2.036241668984136</v>
+        <v>1.819213892324608</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="1">
-        <v>87</v>
+      <c r="A89" s="2">
+        <v>45100</v>
       </c>
       <c r="B89">
-        <v>1.036495172675673</v>
+        <v>1.746868511505134</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="1">
-        <v>88</v>
+      <c r="A90" s="2">
+        <v>45101</v>
       </c>
       <c r="B90">
-        <v>2.036495590708291</v>
+        <v>1.641495668780816</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="1">
-        <v>89</v>
+      <c r="A91" s="2">
+        <v>45102</v>
       </c>
       <c r="B91">
-        <v>2.036496112146225</v>
+        <v>2.2595216152641</v>
       </c>
       <c r="C91">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="1">
-        <v>90</v>
+      <c r="A92" s="2">
+        <v>45104</v>
       </c>
       <c r="B92">
-        <v>1.038870193785622</v>
+        <v>1.896226570639015</v>
       </c>
       <c r="C92">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="1">
-        <v>91</v>
+      <c r="A93" s="2">
+        <v>45105</v>
       </c>
       <c r="B93">
-        <v>2.03883288100739</v>
+        <v>1.822253646913583</v>
       </c>
       <c r="C93">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="1">
-        <v>92</v>
+      <c r="A94" s="2">
+        <v>45109</v>
       </c>
       <c r="B94">
-        <v>2.03906650885056</v>
+        <v>1.713983647122791</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="1">
-        <v>93</v>
+      <c r="A95" s="2">
+        <v>45110</v>
       </c>
       <c r="B95">
-        <v>2.039049157054936</v>
+        <v>1.825623405701405</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="1">
-        <v>94</v>
+      <c r="A96" s="2">
+        <v>45112</v>
       </c>
       <c r="B96">
-        <v>1.039302660746472</v>
+        <v>1.753278024881931</v>
       </c>
       <c r="C96">
         <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="1">
-        <v>95</v>
+      <c r="A97" s="2">
+        <v>45113</v>
       </c>
       <c r="B97">
-        <v>2.039303078779091</v>
+        <v>1.647905182157613</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="1">
-        <v>96</v>
+      <c r="A98" s="2">
+        <v>45114</v>
       </c>
       <c r="B98">
-        <v>2.039303600217025</v>
+        <v>2.265931128640897</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="1">
-        <v>97</v>
+      <c r="A99" s="2">
+        <v>45115</v>
       </c>
       <c r="B99">
-        <v>1.041677681856422</v>
+        <v>1.902636084015813</v>
       </c>
       <c r="C99">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="1">
-        <v>98</v>
+      <c r="A100" s="2">
+        <v>45116</v>
       </c>
       <c r="B100">
-        <v>2.04164036907819</v>
+        <v>1.82866316029038</v>
       </c>
       <c r="C100">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="1">
-        <v>99</v>
+      <c r="A101" s="2">
+        <v>45117</v>
       </c>
       <c r="B101">
-        <v>2.04187399692136</v>
+        <v>1.720393160499588</v>
       </c>
       <c r="C101">
         <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="1">
-        <v>100</v>
+      <c r="A102" s="2">
+        <v>45121</v>
       </c>
       <c r="B102">
-        <v>2.041856645125735</v>
+        <v>1.832032919078203</v>
       </c>
       <c r="C102">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="1">
-        <v>101</v>
+      <c r="A103" s="2">
+        <v>45122</v>
       </c>
       <c r="B103">
-        <v>1.042110148817272</v>
+        <v>1.759687538258728</v>
       </c>
       <c r="C103">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="1">
-        <v>102</v>
+      <c r="A104" s="2">
+        <v>45124</v>
       </c>
       <c r="B104">
-        <v>2.04211056684989</v>
+        <v>1.654314695534411</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="1">
-        <v>103</v>
+      <c r="A105" s="2">
+        <v>45125</v>
       </c>
       <c r="B105">
-        <v>2.042111088287824</v>
+        <v>2.272340642017694</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="1">
-        <v>104</v>
+      <c r="A106" s="2">
+        <v>45126</v>
       </c>
       <c r="B106">
-        <v>1.044485169927222</v>
+        <v>1.90904559739261</v>
       </c>
       <c r="C106">
         <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="1">
-        <v>105</v>
+      <c r="A107" s="2">
+        <v>45127</v>
       </c>
       <c r="B107">
-        <v>2.04444785714899</v>
+        <v>1.835072673667177</v>
       </c>
       <c r="C107">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="1">
-        <v>106</v>
+      <c r="A108" s="2">
+        <v>45129</v>
       </c>
       <c r="B108">
-        <v>2.04468148499216</v>
+        <v>1.726802673876386</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="1">
-        <v>107</v>
+      <c r="A109" s="2">
+        <v>45130</v>
       </c>
       <c r="B109">
-        <v>2.044664133196535</v>
+        <v>1.838442432455</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="1">
-        <v>108</v>
+      <c r="A110" s="2">
+        <v>45132</v>
       </c>
       <c r="B110">
-        <v>1.044917636888072</v>
+        <v>1.766097051635526</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="1">
-        <v>109</v>
+      <c r="A111" s="2">
+        <v>45134</v>
       </c>
       <c r="B111">
-        <v>2.04491805492069</v>
+        <v>1.660724208911208</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="1">
-        <v>110</v>
+      <c r="A112" s="2">
+        <v>45136</v>
       </c>
       <c r="B112">
-        <v>2.044918576358624</v>
+        <v>2.278750155394492</v>
       </c>
       <c r="C112">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="1">
-        <v>111</v>
+      <c r="A113" s="2">
+        <v>45137</v>
       </c>
       <c r="B113">
-        <v>1.047292657998022</v>
+        <v>1.915455110769408</v>
       </c>
       <c r="C113">
         <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="1">
-        <v>112</v>
+      <c r="A114" s="2">
+        <v>45139</v>
       </c>
       <c r="B114">
-        <v>2.047255345219789</v>
+        <v>1.841482187043975</v>
       </c>
       <c r="C114">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="1">
-        <v>113</v>
+      <c r="A115" s="2">
+        <v>45140</v>
       </c>
       <c r="B115">
-        <v>2.04748897306296</v>
+        <v>1.733212187253183</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="1">
-        <v>114</v>
+      <c r="A116" s="2">
+        <v>45141</v>
       </c>
       <c r="B116">
-        <v>2.047471621267335</v>
+        <v>1.844851945831797</v>
       </c>
       <c r="C116">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="1">
-        <v>115</v>
+      <c r="A117" s="2">
+        <v>45144</v>
       </c>
       <c r="B117">
-        <v>1.047725124958872</v>
+        <v>1.772506565012323</v>
       </c>
       <c r="C117">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="1">
-        <v>116</v>
+      <c r="A118" s="2">
+        <v>45146</v>
       </c>
       <c r="B118">
-        <v>2.04772554299149</v>
+        <v>1.667133722288005</v>
       </c>
       <c r="C118">
         <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="1">
-        <v>117</v>
+      <c r="A119" s="2">
+        <v>45150</v>
       </c>
       <c r="B119">
-        <v>2.047726064429424</v>
+        <v>2.285159668771289</v>
       </c>
       <c r="C119">
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="1">
-        <v>118</v>
+      <c r="A120" s="2">
+        <v>45151</v>
       </c>
       <c r="B120">
-        <v>1.050100146068821</v>
+        <v>1.921864624146205</v>
       </c>
       <c r="C120">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="1">
-        <v>119</v>
+      <c r="A121" s="2">
+        <v>45152</v>
       </c>
       <c r="B121">
-        <v>2.050062833290589</v>
+        <v>1.847891700420772</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="1">
-        <v>120</v>
+      <c r="A122" s="2">
+        <v>45154</v>
       </c>
       <c r="B122">
-        <v>2.05029646113376</v>
+        <v>1.73962170062998</v>
       </c>
       <c r="C122">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="1">
-        <v>121</v>
+      <c r="A123" s="2">
+        <v>45155</v>
       </c>
       <c r="B123">
-        <v>2.050279109338135</v>
+        <v>1.851261459208595</v>
       </c>
       <c r="C123">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="1">
-        <v>122</v>
+      <c r="A124" s="2">
+        <v>45157</v>
       </c>
       <c r="B124">
-        <v>1.050532613029672</v>
+        <v>1.77891607838912</v>
       </c>
       <c r="C124">
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="1">
-        <v>123</v>
+      <c r="A125" s="2">
+        <v>45158</v>
       </c>
       <c r="B125">
-        <v>2.05053303106229</v>
+        <v>1.673543235664803</v>
       </c>
       <c r="C125">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="1">
-        <v>124</v>
+      <c r="A126" s="2">
+        <v>45160</v>
       </c>
       <c r="B126">
-        <v>2.050533552500224</v>
+        <v>2.291569182148086</v>
       </c>
       <c r="C126">
         <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="1">
-        <v>125</v>
+      <c r="A127" s="2">
+        <v>45161</v>
       </c>
       <c r="B127">
-        <v>1.052907634139621</v>
+        <v>1.928274137523002</v>
       </c>
       <c r="C127">
         <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="1">
-        <v>126</v>
+      <c r="A128" s="2">
+        <v>45162</v>
       </c>
       <c r="B128">
-        <v>2.052870321361389</v>
+        <v>1.854301213797569</v>
       </c>
       <c r="C128">
         <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="1">
-        <v>127</v>
+      <c r="A129" s="2">
+        <v>45163</v>
       </c>
       <c r="B129">
-        <v>2.05310394920456</v>
+        <v>1.746031214006778</v>
       </c>
       <c r="C129">
         <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="1">
-        <v>128</v>
+      <c r="A130" s="2">
+        <v>45165</v>
       </c>
       <c r="B130">
-        <v>2.053086597408935</v>
+        <v>1.857670972585392</v>
       </c>
       <c r="C130">
         <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="1">
-        <v>129</v>
+      <c r="A131" s="2">
+        <v>45168</v>
       </c>
       <c r="B131">
-        <v>1.053340101100472</v>
+        <v>1.785325591765918</v>
       </c>
       <c r="C131">
         <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="1">
-        <v>130</v>
+      <c r="A132" s="2">
+        <v>45171</v>
       </c>
       <c r="B132">
-        <v>2.05334051913309</v>
+        <v>1.6799527490416</v>
       </c>
       <c r="C132">
         <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="1">
-        <v>131</v>
+      <c r="A133" s="2">
+        <v>45172</v>
       </c>
       <c r="B133">
-        <v>2.053341040571024</v>
+        <v>2.297978695524884</v>
       </c>
       <c r="C133">
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="1">
-        <v>132</v>
+      <c r="A134" s="2">
+        <v>45173</v>
       </c>
       <c r="B134">
-        <v>1.055715122210421</v>
+        <v>1.9346836508998</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="1">
-        <v>133</v>
+      <c r="A135" s="2">
+        <v>45174</v>
       </c>
       <c r="B135">
-        <v>2.055677809432189</v>
+        <v>1.860710727174367</v>
       </c>
       <c r="C135">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="1">
-        <v>134</v>
+      <c r="A136" s="2">
+        <v>45175</v>
       </c>
       <c r="B136">
-        <v>2.055911437275359</v>
+        <v>1.752440727383575</v>
       </c>
       <c r="C136">
         <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="1">
-        <v>135</v>
+      <c r="A137" s="2">
+        <v>45179</v>
       </c>
       <c r="B137">
-        <v>2.055894085479735</v>
+        <v>1.864080485962189</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="1">
-        <v>136</v>
+      <c r="A138" s="2">
+        <v>45180</v>
       </c>
       <c r="B138">
-        <v>1.056147589171271</v>
+        <v>1.791735105142715</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="1">
-        <v>137</v>
+      <c r="A139" s="2">
+        <v>45181</v>
       </c>
       <c r="B139">
-        <v>2.056148007203889</v>
+        <v>1.686362262418397</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="1">
-        <v>138</v>
+      <c r="A140" s="2">
+        <v>45182</v>
       </c>
       <c r="B140">
-        <v>2.056148528641824</v>
+        <v>2.304388208901681</v>
       </c>
       <c r="C140">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="1">
-        <v>139</v>
+      <c r="A141" s="2">
+        <v>45183</v>
       </c>
       <c r="B141">
-        <v>1.058522610281221</v>
+        <v>1.941093164276597</v>
       </c>
       <c r="C141">
         <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="1">
-        <v>140</v>
+      <c r="A142" s="2">
+        <v>45186</v>
       </c>
       <c r="B142">
-        <v>2.058485297502989</v>
+        <v>1.867120240551164</v>
       </c>
       <c r="C142">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="1">
-        <v>141</v>
+      <c r="A143" s="2">
+        <v>45189</v>
       </c>
       <c r="B143">
-        <v>2.058718925346159</v>
+        <v>1.758850240760373</v>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="1">
-        <v>142</v>
+      <c r="A144" s="2">
+        <v>45191</v>
       </c>
       <c r="B144">
-        <v>2.058701573550534</v>
+        <v>1.870489999338987</v>
       </c>
       <c r="C144">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="1">
-        <v>143</v>
+      <c r="A145" s="2">
+        <v>45192</v>
       </c>
       <c r="B145">
-        <v>1.058955077242071</v>
+        <v>1.798144618519512</v>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="1">
-        <v>144</v>
+      <c r="A146" s="2">
+        <v>45193</v>
       </c>
       <c r="B146">
-        <v>2.058955495274689</v>
+        <v>1.692771775795195</v>
       </c>
       <c r="C146">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="1">
-        <v>145</v>
+      <c r="A147" s="2">
+        <v>45194</v>
       </c>
       <c r="B147">
-        <v>2.058956016712624</v>
+        <v>2.310797722278479</v>
       </c>
       <c r="C147">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="1">
-        <v>146</v>
+      <c r="A148" s="2">
+        <v>45195</v>
       </c>
       <c r="B148">
-        <v>1.061330098352021</v>
+        <v>1.947502677653394</v>
       </c>
       <c r="C148">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="1">
-        <v>147</v>
+      <c r="A149" s="2">
+        <v>45197</v>
       </c>
       <c r="B149">
-        <v>2.061292785573789</v>
+        <v>1.873529753927961</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="1">
-        <v>148</v>
+      <c r="A150" s="2">
+        <v>45203</v>
       </c>
       <c r="B150">
-        <v>2.061526413416959</v>
+        <v>1.76525975413717</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="1">
-        <v>149</v>
+      <c r="A151" s="2">
+        <v>45204</v>
       </c>
       <c r="B151">
-        <v>2.061509061621334</v>
+        <v>1.876899512715784</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" s="1">
-        <v>150</v>
+      <c r="A152" s="2">
+        <v>45205</v>
       </c>
       <c r="B152">
-        <v>1.061762565312871</v>
+        <v>1.80455413189631</v>
       </c>
       <c r="C152">
         <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="1">
-        <v>151</v>
+      <c r="A153" s="2">
+        <v>45206</v>
       </c>
       <c r="B153">
-        <v>2.061762983345489</v>
+        <v>1.699181289171992</v>
       </c>
       <c r="C153">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="1">
-        <v>152</v>
+      <c r="A154" s="2">
+        <v>45210</v>
       </c>
       <c r="B154">
-        <v>2.061763504783424</v>
+        <v>2.317207235655276</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" s="1">
-        <v>153</v>
+      <c r="A155" s="2">
+        <v>45214</v>
       </c>
       <c r="B155">
-        <v>1.06413758642282</v>
+        <v>1.953912191030192</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" s="1">
-        <v>154</v>
+      <c r="A156" s="2">
+        <v>45216</v>
       </c>
       <c r="B156">
-        <v>2.064100273644589</v>
+        <v>1.879939267304759</v>
       </c>
       <c r="C156">
         <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="1">
-        <v>155</v>
+      <c r="A157" s="2">
+        <v>45218</v>
       </c>
       <c r="B157">
-        <v>2.064333901487759</v>
+        <v>1.771669267513967</v>
       </c>
       <c r="C157">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" s="1">
-        <v>156</v>
+      <c r="A158" s="2">
+        <v>45219</v>
       </c>
       <c r="B158">
-        <v>2.064316549692134</v>
+        <v>1.883309026092581</v>
       </c>
       <c r="C158">
         <v>3</v>
       </c>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" s="1">
-        <v>157</v>
+      <c r="A159" s="2">
+        <v>45221</v>
       </c>
       <c r="B159">
-        <v>1.064570053383671</v>
+        <v>1.810963645273107</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" s="1">
-        <v>158</v>
+      <c r="A160" s="2">
+        <v>45223</v>
       </c>
       <c r="B160">
-        <v>2.064570471416289</v>
+        <v>1.70559080254879</v>
       </c>
       <c r="C160">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" s="1">
-        <v>159</v>
+      <c r="A161" s="2">
+        <v>45224</v>
       </c>
       <c r="B161">
-        <v>2.064570992854223</v>
+        <v>2.323616749032073</v>
       </c>
       <c r="C161">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" s="1">
-        <v>160</v>
+      <c r="A162" s="2">
+        <v>45225</v>
       </c>
       <c r="B162">
-        <v>1.06694507449362</v>
+        <v>1.960321704406989</v>
       </c>
       <c r="C162">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163" s="1">
-        <v>161</v>
+      <c r="A163" s="2">
+        <v>45228</v>
       </c>
       <c r="B163">
-        <v>2.066907761715389</v>
+        <v>1.886348780681556</v>
       </c>
       <c r="C163">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" s="1">
-        <v>162</v>
+      <c r="A164" s="2">
+        <v>45229</v>
       </c>
       <c r="B164">
-        <v>2.067141389558558</v>
+        <v>1.778078780890765</v>
       </c>
       <c r="C164">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" s="1">
-        <v>163</v>
+      <c r="A165" s="2">
+        <v>45234</v>
       </c>
       <c r="B165">
-        <v>2.067124037762934</v>
+        <v>1.889718539469379</v>
       </c>
       <c r="C165">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" s="1">
-        <v>164</v>
+      <c r="A166" s="2">
+        <v>45237</v>
       </c>
       <c r="B166">
-        <v>1.067377541454471</v>
+        <v>1.817373158649905</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="1">
-        <v>165</v>
+      <c r="A167" s="2">
+        <v>45240</v>
       </c>
       <c r="B167">
-        <v>2.067377959487089</v>
+        <v>1.712000315925587</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" s="1">
-        <v>166</v>
+      <c r="A168" s="2">
+        <v>45241</v>
       </c>
       <c r="B168">
-        <v>2.067378480925023</v>
+        <v>2.330026262408871</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="1">
-        <v>167</v>
+      <c r="A169" s="2">
+        <v>45242</v>
       </c>
       <c r="B169">
-        <v>1.06975256256442</v>
+        <v>1.966731217783786</v>
       </c>
       <c r="C169">
         <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="1">
-        <v>168</v>
+      <c r="A170" s="2">
+        <v>45243</v>
       </c>
       <c r="B170">
-        <v>2.069715249786188</v>
+        <v>1.892758294058353</v>
       </c>
       <c r="C170">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171" s="1">
-        <v>169</v>
+      <c r="A171" s="2">
+        <v>45245</v>
       </c>
       <c r="B171">
-        <v>2.069948877629359</v>
+        <v>1.784488294267562</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" s="1">
-        <v>170</v>
+      <c r="A172" s="2">
+        <v>45248</v>
       </c>
       <c r="B172">
-        <v>2.069931525833734</v>
+        <v>1.896128052846176</v>
       </c>
       <c r="C172">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173" s="1">
-        <v>171</v>
+      <c r="A173" s="2">
+        <v>45249</v>
       </c>
       <c r="B173">
-        <v>1.070185029525271</v>
+        <v>1.823782672026702</v>
       </c>
       <c r="C173">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" s="1">
-        <v>172</v>
+      <c r="A174" s="2">
+        <v>45250</v>
       </c>
       <c r="B174">
-        <v>2.070185447557888</v>
+        <v>1.718409829302384</v>
       </c>
       <c r="C174">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175" s="1">
-        <v>173</v>
+      <c r="A175" s="2">
+        <v>45253</v>
       </c>
       <c r="B175">
-        <v>2.070185968995823</v>
+        <v>2.336435775785668</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176" s="1">
-        <v>174</v>
+      <c r="A176" s="2">
+        <v>45254</v>
       </c>
       <c r="B176">
-        <v>1.07256005063522</v>
+        <v>1.973140731160584</v>
       </c>
       <c r="C176">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:3">
-      <c r="A177" s="1">
-        <v>175</v>
+      <c r="A177" s="2">
+        <v>45259</v>
       </c>
       <c r="B177">
-        <v>2.072522737856988</v>
+        <v>1.899167807435151</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178" s="1">
-        <v>176</v>
+      <c r="A178" s="2">
+        <v>45262</v>
       </c>
       <c r="B178">
-        <v>2.072756365700158</v>
+        <v>1.790897807644359</v>
       </c>
       <c r="C178">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179" s="1">
-        <v>177</v>
+      <c r="A179" s="2">
+        <v>45265</v>
       </c>
       <c r="B179">
-        <v>2.072739013904533</v>
+        <v>1.902537566222973</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:3">
-      <c r="A180" s="1">
-        <v>178</v>
+      <c r="A180" s="2">
+        <v>45271</v>
       </c>
       <c r="B180">
-        <v>1.07299251759607</v>
+        <v>1.830192185403499</v>
       </c>
       <c r="C180">
         <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181" s="1">
-        <v>179</v>
+      <c r="A181" s="2">
+        <v>45275</v>
       </c>
       <c r="B181">
-        <v>2.072992935628688</v>
+        <v>1.724819342679182</v>
       </c>
       <c r="C181">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:3">
-      <c r="A182" s="1">
-        <v>180</v>
+      <c r="A182" s="2">
+        <v>45276</v>
       </c>
       <c r="B182">
-        <v>2.072993457066623</v>
+        <v>2.342845289162465</v>
       </c>
       <c r="C182">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:3">
-      <c r="A183" s="1">
-        <v>181</v>
+      <c r="A183" s="2">
+        <v>45279</v>
       </c>
       <c r="B183">
-        <v>1.07536753870602</v>
+        <v>1.979550244537381</v>
       </c>
       <c r="C183">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:3">
-      <c r="A184" s="1">
-        <v>182</v>
+      <c r="A184" s="2">
+        <v>45280</v>
       </c>
       <c r="B184">
-        <v>2.075330225927788</v>
+        <v>1.905577320811948</v>
       </c>
       <c r="C184">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:3">
-      <c r="A185" s="1">
-        <v>183</v>
+      <c r="A185" s="2">
+        <v>45281</v>
       </c>
       <c r="B185">
-        <v>2.075563853770958</v>
+        <v>1.797307321021157</v>
       </c>
       <c r="C185">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:3">
-      <c r="A186" s="1">
-        <v>184</v>
+      <c r="A186" s="2">
+        <v>45282</v>
       </c>
       <c r="B186">
-        <v>2.075546501975333</v>
+        <v>1.908947079599771</v>
       </c>
       <c r="C186">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:3">
-      <c r="A187" s="1">
-        <v>185</v>
+      <c r="A187" s="2">
+        <v>45284</v>
       </c>
       <c r="B187">
-        <v>1.07580000566687</v>
+        <v>1.836601698780296</v>
       </c>
       <c r="C187">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:3">
-      <c r="A188" s="1">
-        <v>186</v>
+      <c r="A188" s="2">
+        <v>45286</v>
       </c>
       <c r="B188">
-        <v>2.075800423699488</v>
+        <v>1.731228856055979</v>
       </c>
       <c r="C188">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:3">
-      <c r="A189" s="1">
-        <v>187</v>
+      <c r="A189" s="2">
+        <v>45287</v>
       </c>
       <c r="B189">
-        <v>2.075800945137423</v>
+        <v>2.349254802539263</v>
       </c>
       <c r="C189">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="190" spans="1:3">
-      <c r="A190" s="1">
-        <v>188</v>
+      <c r="A190" s="2">
+        <v>45288</v>
       </c>
       <c r="B190">
-        <v>1.07817502677682</v>
+        <v>1.985959757914178</v>
       </c>
       <c r="C190">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:3">
-      <c r="A191" s="1">
-        <v>189</v>
+      <c r="A191" s="2">
+        <v>45290</v>
       </c>
       <c r="B191">
-        <v>2.078137713998588</v>
+        <v>1.911986834188745</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:3">
-      <c r="A192" s="1">
-        <v>190</v>
+      <c r="A192" s="2">
+        <v>45294</v>
       </c>
       <c r="B192">
-        <v>2.078371341841758</v>
+        <v>1.803716834397954</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193" s="1">
-        <v>191</v>
+      <c r="A193" s="2">
+        <v>45295</v>
       </c>
       <c r="B193">
-        <v>2.078353990046133</v>
+        <v>1.915356592976568</v>
       </c>
       <c r="C193">
         <v>3</v>
       </c>
     </row>
     <row r="194" spans="1:3">
-      <c r="A194" s="1">
-        <v>192</v>
+      <c r="A194" s="2">
+        <v>45296</v>
       </c>
       <c r="B194">
-        <v>1.07860749373767</v>
+        <v>1.843011212157094</v>
       </c>
       <c r="C194">
         <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:3">
-      <c r="A195" s="1">
-        <v>193</v>
+      <c r="A195" s="2">
+        <v>45297</v>
       </c>
       <c r="B195">
-        <v>2.078607911770288</v>
+        <v>1.737638369432776</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:3">
-      <c r="A196" s="1">
-        <v>194</v>
+      <c r="A196" s="2">
+        <v>45299</v>
       </c>
       <c r="B196">
-        <v>2.078608433208223</v>
+        <v>2.35566431591606</v>
       </c>
       <c r="C196">
         <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:3">
-      <c r="A197" s="1">
-        <v>195</v>
+      <c r="A197" s="2">
+        <v>45302</v>
       </c>
       <c r="B197">
-        <v>1.080982514847619</v>
+        <v>1.992369271290976</v>
       </c>
       <c r="C197">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:3">
-      <c r="A198" s="1">
-        <v>196</v>
+      <c r="A198" s="2">
+        <v>45303</v>
       </c>
       <c r="B198">
-        <v>2.080945202069388</v>
+        <v>1.918396347565543</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:3">
-      <c r="A199" s="1">
-        <v>197</v>
+      <c r="A199" s="2">
+        <v>45304</v>
       </c>
       <c r="B199">
-        <v>2.081178829912558</v>
+        <v>1.810126347774752</v>
       </c>
       <c r="C199">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:3">
-      <c r="A200" s="1">
-        <v>198</v>
+      <c r="A200" s="2">
+        <v>45305</v>
       </c>
       <c r="B200">
-        <v>2.081161478116933</v>
+        <v>1.921766106353365</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:3">
-      <c r="A201" s="1">
-        <v>199</v>
+      <c r="A201" s="2">
+        <v>45307</v>
       </c>
       <c r="B201">
-        <v>1.08141498180847</v>
+        <v>1.849420725533891</v>
       </c>
       <c r="C201">
         <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:3">
-      <c r="A202" s="1">
-        <v>200</v>
+      <c r="A202" s="2">
+        <v>45308</v>
       </c>
       <c r="B202">
-        <v>2.081415399841088</v>
+        <v>1.744047882809574</v>
       </c>
       <c r="C202">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:3">
-      <c r="A203" s="1">
-        <v>201</v>
+      <c r="A203" s="2">
+        <v>45311</v>
       </c>
       <c r="B203">
-        <v>2.081415921279022</v>
+        <v>2.362073829292857</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:3">
-      <c r="A204" s="1">
-        <v>202</v>
+      <c r="A204" s="2">
+        <v>45315</v>
       </c>
       <c r="B204">
-        <v>1.083790002918419</v>
+        <v>1.998778784667773</v>
       </c>
       <c r="C204">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:3">
-      <c r="A205" s="1">
-        <v>203</v>
+      <c r="A205" s="2">
+        <v>45317</v>
       </c>
       <c r="B205">
-        <v>2.083752690140187</v>
+        <v>1.92480586094234</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:3">
-      <c r="A206" s="1">
-        <v>204</v>
+      <c r="A206" s="2">
+        <v>45318</v>
       </c>
       <c r="B206">
-        <v>2.083986317983357</v>
+        <v>1.816535861151549</v>
       </c>
       <c r="C206">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:3">
-      <c r="A207" s="1">
-        <v>205</v>
+      <c r="A207" s="2">
+        <v>45320</v>
       </c>
       <c r="B207">
-        <v>2.083968966187733</v>
+        <v>1.928175619730163</v>
       </c>
       <c r="C207">
         <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:3">
-      <c r="A208" s="1">
-        <v>206</v>
+      <c r="A208" s="2">
+        <v>45321</v>
       </c>
       <c r="B208">
-        <v>1.08422246987927</v>
+        <v>1.855830238910689</v>
       </c>
       <c r="C208">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="209" spans="1:3">
-      <c r="A209" s="1">
-        <v>207</v>
+      <c r="A209" s="2">
+        <v>45323</v>
       </c>
       <c r="B209">
-        <v>2.084222887911888</v>
+        <v>1.750457396186371</v>
       </c>
       <c r="C209">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:3">
-      <c r="A210" s="1">
-        <v>208</v>
+      <c r="A210" s="2">
+        <v>45324</v>
       </c>
       <c r="B210">
-        <v>2.084223409349822</v>
+        <v>2.368483342669655</v>
       </c>
       <c r="C210">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:3">
-      <c r="A211" s="1">
-        <v>209</v>
+      <c r="A211" s="2">
+        <v>45329</v>
       </c>
       <c r="B211">
-        <v>1.086597490989219</v>
+        <v>2.00518829804457</v>
       </c>
       <c r="C211">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="212" spans="1:3">
-      <c r="A212" s="1">
-        <v>210</v>
+      <c r="A212" s="2">
+        <v>45330</v>
       </c>
       <c r="B212">
-        <v>2.086560178210987</v>
+        <v>1.931215374319138</v>
       </c>
       <c r="C212">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:3">
-      <c r="A213" s="1">
-        <v>211</v>
+      <c r="A213" s="2">
+        <v>45331</v>
       </c>
       <c r="B213">
-        <v>2.086793806054157</v>
+        <v>1.822945374528346</v>
       </c>
       <c r="C213">
         <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:3">
-      <c r="A214" s="1">
-        <v>212</v>
+      <c r="A214" s="2">
+        <v>45332</v>
       </c>
       <c r="B214">
-        <v>2.086776454258533</v>
+        <v>1.93458513310696</v>
       </c>
       <c r="C214">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="215" spans="1:3">
-      <c r="A215" s="1">
-        <v>213</v>
+      <c r="A215" s="2">
+        <v>45333</v>
       </c>
       <c r="B215">
-        <v>1.08702995795007</v>
+        <v>1.862239752287486</v>
       </c>
       <c r="C215">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:3">
-      <c r="A216" s="1">
-        <v>214</v>
+      <c r="A216" s="2">
+        <v>45335</v>
       </c>
       <c r="B216">
-        <v>2.087030375982688</v>
+        <v>1.756866909563168</v>
       </c>
       <c r="C216">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:3">
-      <c r="A217" s="1">
-        <v>215</v>
+      <c r="A217" s="2">
+        <v>45336</v>
       </c>
       <c r="B217">
-        <v>2.087030897420622</v>
+        <v>2.374892856046452</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218" s="1">
-        <v>216</v>
+      <c r="A218" s="2">
+        <v>45338</v>
       </c>
       <c r="B218">
-        <v>1.089404979060019</v>
+        <v>2.011597811421368</v>
       </c>
       <c r="C218">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:3">
-      <c r="A219" s="1">
-        <v>217</v>
+      <c r="A219" s="2">
+        <v>45342</v>
       </c>
       <c r="B219">
-        <v>2.089367666281787</v>
+        <v>1.937624887695935</v>
       </c>
       <c r="C219">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:3">
-      <c r="A220" s="1">
-        <v>218</v>
+      <c r="A220" s="2">
+        <v>45344</v>
       </c>
       <c r="B220">
-        <v>2.089601294124957</v>
+        <v>1.829354887905144</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:3">
-      <c r="A221" s="1">
-        <v>219</v>
+      <c r="A221" s="2">
+        <v>45347</v>
       </c>
       <c r="B221">
-        <v>2.089583942329333</v>
+        <v>1.940994646483757</v>
       </c>
       <c r="C221">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:3">
-      <c r="A222" s="1">
-        <v>220</v>
+      <c r="A222" s="2">
+        <v>45348</v>
       </c>
       <c r="B222">
-        <v>1.08983744602087</v>
+        <v>1.868649265664283</v>
       </c>
       <c r="C222">
         <v>3</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
-      <c r="A223" s="1">
-        <v>221</v>
-      </c>
-      <c r="B223">
-        <v>2.089837864053488</v>
-      </c>
-      <c r="C223">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
-      <c r="A224" s="1">
-        <v>222</v>
-      </c>
-      <c r="B224">
-        <v>2.089838385491422</v>
-      </c>
-      <c r="C224">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3">
-      <c r="A225" s="1">
-        <v>223</v>
-      </c>
-      <c r="B225">
-        <v>1.092212467130819</v>
-      </c>
-      <c r="C225">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3">
-      <c r="A226" s="1">
-        <v>224</v>
-      </c>
-      <c r="B226">
-        <v>2.092175154352587</v>
-      </c>
-      <c r="C226">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3">
-      <c r="A227" s="1">
-        <v>225</v>
-      </c>
-      <c r="B227">
-        <v>2.092408782195757</v>
-      </c>
-      <c r="C227">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3">
-      <c r="A228" s="1">
-        <v>226</v>
-      </c>
-      <c r="B228">
-        <v>2.092391430400133</v>
-      </c>
-      <c r="C228">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
-      <c r="A229" s="1">
-        <v>227</v>
-      </c>
-      <c r="B229">
-        <v>1.092644934091669</v>
-      </c>
-      <c r="C229">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
-      <c r="A230" s="1">
-        <v>228</v>
-      </c>
-      <c r="B230">
-        <v>2.092645352124287</v>
-      </c>
-      <c r="C230">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3">
-      <c r="A231" s="1">
-        <v>229</v>
-      </c>
-      <c r="B231">
-        <v>2.092645873562222</v>
-      </c>
-      <c r="C231">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3">
-      <c r="A232" s="1">
-        <v>230</v>
-      </c>
-      <c r="B232">
-        <v>1.095019955201618</v>
-      </c>
-      <c r="C232">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3">
-      <c r="A233" s="1">
-        <v>231</v>
-      </c>
-      <c r="B233">
-        <v>2.094982642423387</v>
-      </c>
-      <c r="C233">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3">
-      <c r="A234" s="1">
-        <v>232</v>
-      </c>
-      <c r="B234">
-        <v>2.095216270266557</v>
-      </c>
-      <c r="C234">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3">
-      <c r="A235" s="1">
-        <v>233</v>
-      </c>
-      <c r="B235">
-        <v>2.095198918470932</v>
-      </c>
-      <c r="C235">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3">
-      <c r="A236" s="1">
-        <v>234</v>
-      </c>
-      <c r="B236">
-        <v>1.095452422162469</v>
-      </c>
-      <c r="C236">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3">
-      <c r="A237" s="1">
-        <v>235</v>
-      </c>
-      <c r="B237">
-        <v>2.095452840195087</v>
-      </c>
-      <c r="C237">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3">
-      <c r="A238" s="1">
-        <v>236</v>
-      </c>
-      <c r="B238">
-        <v>2.095453361633021</v>
-      </c>
-      <c r="C238">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3">
-      <c r="A239" s="1">
-        <v>237</v>
-      </c>
-      <c r="B239">
-        <v>1.097827443272418</v>
-      </c>
-      <c r="C239">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3">
-      <c r="A240" s="1">
-        <v>238</v>
-      </c>
-      <c r="B240">
-        <v>2.097790130494187</v>
-      </c>
-      <c r="C240">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3">
-      <c r="A241" s="1">
-        <v>239</v>
-      </c>
-      <c r="B241">
-        <v>2.098023758337357</v>
-      </c>
-      <c r="C241">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3">
-      <c r="A242" s="1">
-        <v>240</v>
-      </c>
-      <c r="B242">
-        <v>2.098006406541732</v>
-      </c>
-      <c r="C242">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3">
-      <c r="A243" s="1">
-        <v>241</v>
-      </c>
-      <c r="B243">
-        <v>1.098259910233269</v>
-      </c>
-      <c r="C243">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3">
-      <c r="A244" s="1">
-        <v>242</v>
-      </c>
-      <c r="B244">
-        <v>2.098260328265887</v>
-      </c>
-      <c r="C244">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3">
-      <c r="A245" s="1">
-        <v>243</v>
-      </c>
-      <c r="B245">
-        <v>2.098260849703821</v>
-      </c>
-      <c r="C245">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3">
-      <c r="A246" s="1">
-        <v>244</v>
-      </c>
-      <c r="B246">
-        <v>1.100634931343218</v>
-      </c>
-      <c r="C246">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3">
-      <c r="A247" s="1">
-        <v>245</v>
-      </c>
-      <c r="B247">
-        <v>2.100597618564986</v>
-      </c>
-      <c r="C247">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3">
-      <c r="A248" s="1">
-        <v>246</v>
-      </c>
-      <c r="B248">
-        <v>2.100831246408156</v>
-      </c>
-      <c r="C248">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3">
-      <c r="A249" s="1">
-        <v>247</v>
-      </c>
-      <c r="B249">
-        <v>2.100813894612532</v>
-      </c>
-      <c r="C249">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3">
-      <c r="A250" s="1">
-        <v>248</v>
-      </c>
-      <c r="B250">
-        <v>1.101067398304069</v>
-      </c>
-      <c r="C250">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3">
-      <c r="A251" s="1">
-        <v>249</v>
-      </c>
-      <c r="B251">
-        <v>2.101067816336687</v>
-      </c>
-      <c r="C251">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3">
-      <c r="A252" s="1">
-        <v>250</v>
-      </c>
-      <c r="B252">
-        <v>2.101068337774621</v>
-      </c>
-      <c r="C252">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3">
-      <c r="A253" s="1">
-        <v>251</v>
-      </c>
-      <c r="B253">
-        <v>1.103442419414018</v>
-      </c>
-      <c r="C253">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3">
-      <c r="A254" s="1">
-        <v>252</v>
-      </c>
-      <c r="B254">
-        <v>2.103405106635786</v>
-      </c>
-      <c r="C254">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3">
-      <c r="A255" s="1">
-        <v>253</v>
-      </c>
-      <c r="B255">
-        <v>2.103638734478956</v>
-      </c>
-      <c r="C255">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3">
-      <c r="A256" s="1">
-        <v>254</v>
-      </c>
-      <c r="B256">
-        <v>2.103621382683332</v>
-      </c>
-      <c r="C256">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3">
-      <c r="A257" s="1">
-        <v>255</v>
-      </c>
-      <c r="B257">
-        <v>1.103874886374869</v>
-      </c>
-      <c r="C257">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3">
-      <c r="A258" s="1">
-        <v>256</v>
-      </c>
-      <c r="B258">
-        <v>2.103875304407487</v>
-      </c>
-      <c r="C258">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3">
-      <c r="A259" s="1">
-        <v>257</v>
-      </c>
-      <c r="B259">
-        <v>2.103875825845421</v>
-      </c>
-      <c r="C259">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3">
-      <c r="A260" s="1">
-        <v>258</v>
-      </c>
-      <c r="B260">
-        <v>1.106249907484818</v>
-      </c>
-      <c r="C260">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3">
-      <c r="A261" s="1">
-        <v>259</v>
-      </c>
-      <c r="B261">
-        <v>2.106212594706586</v>
-      </c>
-      <c r="C261">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3">
-      <c r="A262" s="1">
-        <v>260</v>
-      </c>
-      <c r="B262">
-        <v>2.106446222549756</v>
-      </c>
-      <c r="C262">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3">
-      <c r="A263" s="1">
-        <v>261</v>
-      </c>
-      <c r="B263">
-        <v>2.106428870754132</v>
-      </c>
-      <c r="C263">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3">
-      <c r="A264" s="1">
-        <v>262</v>
-      </c>
-      <c r="B264">
-        <v>1.106682374445668</v>
-      </c>
-      <c r="C264">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3">
-      <c r="A265" s="1">
-        <v>263</v>
-      </c>
-      <c r="B265">
-        <v>2.106682792478287</v>
-      </c>
-      <c r="C265">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3">
-      <c r="A266" s="1">
-        <v>264</v>
-      </c>
-      <c r="B266">
-        <v>2.106683313916221</v>
-      </c>
-      <c r="C266">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3">
-      <c r="A267" s="1">
-        <v>265</v>
-      </c>
-      <c r="B267">
-        <v>1.109057395555618</v>
-      </c>
-      <c r="C267">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3">
-      <c r="A268" s="1">
-        <v>266</v>
-      </c>
-      <c r="B268">
-        <v>2.109020082777386</v>
-      </c>
-      <c r="C268">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3">
-      <c r="A269" s="1">
-        <v>267</v>
-      </c>
-      <c r="B269">
-        <v>2.109253710620556</v>
-      </c>
-      <c r="C269">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3">
-      <c r="A270" s="1">
-        <v>268</v>
-      </c>
-      <c r="B270">
-        <v>2.109236358824931</v>
-      </c>
-      <c r="C270">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3">
-      <c r="A271" s="1">
-        <v>269</v>
-      </c>
-      <c r="B271">
-        <v>1.109489862516468</v>
-      </c>
-      <c r="C271">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3">
-      <c r="A272" s="1">
-        <v>270</v>
-      </c>
-      <c r="B272">
-        <v>2.109490280549086</v>
-      </c>
-      <c r="C272">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3">
-      <c r="A273" s="1">
-        <v>271</v>
-      </c>
-      <c r="B273">
-        <v>2.10949080198702</v>
-      </c>
-      <c r="C273">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3">
-      <c r="A274" s="1">
-        <v>272</v>
-      </c>
-      <c r="B274">
-        <v>1.111864883626418</v>
-      </c>
-      <c r="C274">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3">
-      <c r="A275" s="1">
-        <v>273</v>
-      </c>
-      <c r="B275">
-        <v>2.111827570848186</v>
-      </c>
-      <c r="C275">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
